--- a/Testes/desvio_padrao.xlsx
+++ b/Testes/desvio_padrao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davin.DESKTOP-83VQBDE\Documents\testes\DemaisTestes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davin.DESKTOP-83VQBDE\Documents\testes\sbrc2020\Testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E204817-7296-4A57-817F-93063706BE41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37213E2E-ED89-4544-8FEE-825B94FC7A80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{50F5AE4D-3D98-4A58-9DB7-2B922B7258AE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>vazão web</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>medida</t>
+  </si>
+  <si>
+    <t>nível de confiança</t>
+  </si>
+  <si>
+    <t>intervalo de confiança</t>
+  </si>
+  <si>
+    <t>valor crítico</t>
+  </si>
+  <si>
+    <t>erro padrão</t>
   </si>
 </sst>
 </file>
@@ -433,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C140533C-288B-402F-97E9-985073388BF8}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,9 +456,12 @@
     <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -459,8 +474,20 @@
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -490,8 +517,26 @@
       <c r="I2" t="s">
         <v>11</v>
       </c>
+      <c r="J2">
+        <v>0.95</v>
+      </c>
+      <c r="K2">
+        <v>1.96</v>
+      </c>
+      <c r="L2">
+        <f>H2/SQRT(5)</f>
+        <v>5.3291650377896911</v>
+      </c>
+      <c r="M2">
+        <f>G2-K2*L2</f>
+        <v>79.3548365259322</v>
+      </c>
+      <c r="N2">
+        <f>G2+K2*L2</f>
+        <v>100.24516347406779</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -521,8 +566,26 @@
       <c r="I3" t="s">
         <v>11</v>
       </c>
+      <c r="J3">
+        <v>0.95</v>
+      </c>
+      <c r="K3">
+        <v>1.96</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L9" si="2">H3/SQRT(5)</f>
+        <v>9.4868329805051381</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M9" si="3">G3-K3*L3</f>
+        <v>69.805807358209933</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N9" si="4">G3+K3*L3</f>
+        <v>106.99419264179008</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -552,8 +615,26 @@
       <c r="I4" t="s">
         <v>12</v>
       </c>
+      <c r="J4">
+        <v>0.95</v>
+      </c>
+      <c r="K4">
+        <v>1.96</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>243.75876052633132</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>3570.2328293683904</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>4525.7671706316096</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -583,8 +664,26 @@
       <c r="I5" t="s">
         <v>12</v>
       </c>
+      <c r="J5">
+        <v>0.95</v>
+      </c>
+      <c r="K5">
+        <v>1.96</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.57735026918962573</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>80.068393472388337</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>82.331606527611669</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -614,8 +713,26 @@
       <c r="I6" t="s">
         <v>11</v>
       </c>
+      <c r="J6">
+        <v>0.95</v>
+      </c>
+      <c r="K6">
+        <v>1.96</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>267.35818670839308</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>191.57795405154957</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>1239.6220459484505</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -645,8 +762,26 @@
       <c r="I7" t="s">
         <v>11</v>
       </c>
+      <c r="J7">
+        <v>0.95</v>
+      </c>
+      <c r="K7">
+        <v>1.96</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>44.122939989684888</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>75.099037620217601</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>248.06096237978238</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -666,7 +801,7 @@
         <v>30</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G9" si="2">AVERAGE(B8,C8,D8,E8,F8)</f>
+        <f t="shared" ref="G8:G9" si="5">AVERAGE(B8,C8,D8,E8,F8)</f>
         <v>59.2</v>
       </c>
       <c r="H8">
@@ -676,8 +811,26 @@
       <c r="I8" t="s">
         <v>12</v>
       </c>
+      <c r="J8">
+        <v>0.95</v>
+      </c>
+      <c r="K8">
+        <v>1.96</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>34.280750186268293</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>-7.9902703650858484</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>126.39027036508585</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -697,7 +850,7 @@
         <v>31</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>19.606000000000002</v>
       </c>
       <c r="H9">
@@ -706,6 +859,24 @@
       </c>
       <c r="I9" t="s">
         <v>12</v>
+      </c>
+      <c r="J9">
+        <v>0.95</v>
+      </c>
+      <c r="K9">
+        <v>1.96</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>8.1889750070852383</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>3.5556089861129365</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>35.656391013887067</v>
       </c>
     </row>
   </sheetData>
